--- a/DIDEngineScriptingLanguage/Syntax.xlsx
+++ b/DIDEngineScriptingLanguage/Syntax.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dima.WIN-V4RR52DS4SJ\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dima.WIN-V4RR52DS4SJ\Documents\Visual Studio 2015\Projects\DIDEngine\DIDEngineScriptingLanguage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -159,7 +159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,145 +168,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="15">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -314,84 +185,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="11"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="12"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="13"/>
   </cellXfs>
-  <cellStyles count="14">
-    <cellStyle name="20% — акцент1" xfId="7" builtinId="30"/>
-    <cellStyle name="40% — акцент1" xfId="8" builtinId="31"/>
-    <cellStyle name="40% — акцент2" xfId="11" builtinId="35"/>
-    <cellStyle name="60% — акцент1" xfId="9" builtinId="32"/>
-    <cellStyle name="60% — акцент2" xfId="12" builtinId="36"/>
-    <cellStyle name="60% — акцент3" xfId="13" builtinId="40"/>
-    <cellStyle name="Акцент1" xfId="6" builtinId="29"/>
-    <cellStyle name="Акцент2" xfId="10" builtinId="33"/>
-    <cellStyle name="Вывод" xfId="4" builtinId="21"/>
-    <cellStyle name="Контрольная ячейка" xfId="5" builtinId="23"/>
-    <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
-    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -671,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,62 +502,62 @@
     <col min="22" max="22" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" t="s">
         <v>37</v>
       </c>
       <c r="U1" t="s">
@@ -768,7 +570,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
